--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N2">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P2">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q2">
-        <v>2.042988604147556</v>
+        <v>46.92608532568088</v>
       </c>
       <c r="R2">
-        <v>18.386897437328</v>
+        <v>422.334767931128</v>
       </c>
       <c r="S2">
-        <v>0.002831046407873095</v>
+        <v>0.07724203472086093</v>
       </c>
       <c r="T2">
-        <v>0.002831046407873095</v>
+        <v>0.07724203472086093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N3">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O3">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P3">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q3">
-        <v>41.69655555697955</v>
+        <v>5.808099436617334</v>
       </c>
       <c r="R3">
-        <v>375.269000012816</v>
+        <v>52.272894929556</v>
       </c>
       <c r="S3">
-        <v>0.05778049059628629</v>
+        <v>0.00956034187023674</v>
       </c>
       <c r="T3">
-        <v>0.05778049059628629</v>
+        <v>0.00956034187023674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N4">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P4">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q4">
-        <v>5.95867492878</v>
+        <v>0.5158084718844445</v>
       </c>
       <c r="R4">
-        <v>53.62807435902</v>
+        <v>4.64227624696</v>
       </c>
       <c r="S4">
-        <v>0.008257160719623719</v>
+        <v>0.0008490394120476186</v>
       </c>
       <c r="T4">
-        <v>0.008257160719623718</v>
+        <v>0.0008490394120476184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>365.462677</v>
       </c>
       <c r="I5">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J5">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N5">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P5">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q5">
-        <v>13.22065294743912</v>
+        <v>269.8280788269271</v>
       </c>
       <c r="R5">
-        <v>118.985876526952</v>
+        <v>2428.452709442344</v>
       </c>
       <c r="S5">
-        <v>0.01832035771545649</v>
+        <v>0.4441467829409291</v>
       </c>
       <c r="T5">
-        <v>0.01832035771545649</v>
+        <v>0.4441467829409291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N6">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O6">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P6">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q6">
-        <v>269.8280788269271</v>
+        <v>33.39695399139867</v>
       </c>
       <c r="R6">
-        <v>2428.452709442344</v>
+        <v>300.5725859225881</v>
       </c>
       <c r="S6">
-        <v>0.3739109517084206</v>
+        <v>0.05497259491967182</v>
       </c>
       <c r="T6">
-        <v>0.3739109517084206</v>
+        <v>0.05497259491967182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +853,40 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N7">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P7">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q7">
-        <v>38.55996705027</v>
+        <v>2.965932658675556</v>
       </c>
       <c r="R7">
-        <v>347.03970345243</v>
+        <v>26.69339392808</v>
       </c>
       <c r="S7">
-        <v>0.05343400153273068</v>
+        <v>0.004882032494531943</v>
       </c>
       <c r="T7">
-        <v>0.05343400153273067</v>
+        <v>0.004882032494531942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H8">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I8">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J8">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N8">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P8">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q8">
-        <v>4.886534334464889</v>
+        <v>82.41232136188709</v>
       </c>
       <c r="R8">
-        <v>43.978809010184</v>
+        <v>741.7108922569839</v>
       </c>
       <c r="S8">
-        <v>0.006771455037218702</v>
+        <v>0.135653663498283</v>
       </c>
       <c r="T8">
-        <v>0.0067714550372187</v>
+        <v>0.135653663498283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H9">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I9">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J9">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N9">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O9">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P9">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q9">
-        <v>99.73215217376087</v>
+        <v>10.20027462231867</v>
       </c>
       <c r="R9">
-        <v>897.5893695638479</v>
+        <v>91.802471600868</v>
       </c>
       <c r="S9">
-        <v>0.1382026069982846</v>
+        <v>0.01679002118057081</v>
       </c>
       <c r="T9">
-        <v>0.1382026069982846</v>
+        <v>0.01679002118057081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N10">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P10">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q10">
-        <v>14.25229174959</v>
+        <v>0.9058708658755554</v>
       </c>
       <c r="R10">
-        <v>128.27062574631</v>
+        <v>8.152837792879998</v>
       </c>
       <c r="S10">
-        <v>0.01974993853598701</v>
+        <v>0.001491096229079295</v>
       </c>
       <c r="T10">
-        <v>0.019749938535987</v>
+        <v>0.001491096229079295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H11">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I11">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J11">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1085253333333333</v>
+        <v>2.214957333333333</v>
       </c>
       <c r="N11">
-        <v>0.325576</v>
+        <v>6.644871999999999</v>
       </c>
       <c r="O11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="P11">
-        <v>0.0411078835732859</v>
+        <v>0.8812411509483107</v>
       </c>
       <c r="Q11">
-        <v>9.514805036653335</v>
+        <v>136.2051886179226</v>
       </c>
       <c r="R11">
-        <v>85.63324532988001</v>
+        <v>1225.846697561304</v>
       </c>
       <c r="S11">
-        <v>0.01318502441273761</v>
+        <v>0.2241986697882376</v>
       </c>
       <c r="T11">
-        <v>0.01318502441273761</v>
+        <v>0.2241986697882376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H12">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I12">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J12">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.214957333333333</v>
+        <v>0.274148</v>
       </c>
       <c r="N12">
-        <v>6.644871999999999</v>
+        <v>0.8224440000000001</v>
       </c>
       <c r="O12">
-        <v>0.8389949644181</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="P12">
-        <v>0.8389949644181001</v>
+        <v>0.1090723037479928</v>
       </c>
       <c r="Q12">
-        <v>194.1932500353733</v>
+        <v>16.858284124612</v>
       </c>
       <c r="R12">
-        <v>1747.73925031836</v>
+        <v>151.724557121508</v>
       </c>
       <c r="S12">
-        <v>0.2691009151151085</v>
+        <v>0.02774934577751344</v>
       </c>
       <c r="T12">
-        <v>0.2691009151151085</v>
+        <v>0.02774934577751344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H13">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I13">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J13">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.31653</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N13">
-        <v>0.9495899999999999</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696538</v>
       </c>
       <c r="P13">
-        <v>0.1198971520086141</v>
+        <v>0.009686545303696536</v>
       </c>
       <c r="Q13">
-        <v>27.75131986005</v>
+        <v>1.497158557253333</v>
       </c>
       <c r="R13">
-        <v>249.76187874045</v>
+        <v>13.47442701528</v>
       </c>
       <c r="S13">
-        <v>0.03845605122027271</v>
+        <v>0.00246437716803768</v>
       </c>
       <c r="T13">
-        <v>0.0384560512202727</v>
+        <v>0.00246437716803768</v>
       </c>
     </row>
   </sheetData>
